--- a/Trabalho 1 - Manual/Q2_Manual_LucasPaivaDaSilva.xlsx
+++ b/Trabalho 1 - Manual/Q2_Manual_LucasPaivaDaSilva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paiva/Documents/GitHub/INE5202/Trabalho 1 - Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D321AA-9DC5-0E40-B187-F6FEC853B103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E711BADF-2E78-6C42-B463-97208F675021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20960" yWindow="1160" windowWidth="30240" windowHeight="18900" xr2:uid="{E26E5BDD-50E4-7541-91DD-E579DC7E1006}"/>
+    <workbookView xWindow="22980" yWindow="1140" windowWidth="30240" windowHeight="18900" xr2:uid="{E26E5BDD-50E4-7541-91DD-E579DC7E1006}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Iteração</t>
   </si>
@@ -58,10 +58,28 @@
     <t>Observação, fiz com a derivada númerica baseada na função</t>
   </si>
   <si>
-    <t>Resposta: Pi, -Pi, 0</t>
+    <t>Lucas Paiva da Silva (20100417)</t>
   </si>
   <si>
-    <t>Lucas Paiva da Silva (20100417)</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Xi 1</t>
+  </si>
+  <si>
+    <t>Xi 2</t>
+  </si>
+  <si>
+    <t>Xi 3</t>
+  </si>
+  <si>
+    <t>Xi 4</t>
+  </si>
+  <si>
+    <t>Resposta: Pi, -Pi, 0, 1</t>
   </si>
 </sst>
 </file>
@@ -77,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,12 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -120,6 +147,963 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Para achar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Xi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$O$3:$O$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$P$3:$P$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.17026783563964376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.0009798541953223E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.81938994872306958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1148154493098041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.54625996581537972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1930237396042739E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13359476334802817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-848B-8E43-AE13-90715FE42715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="845243552"/>
+        <c:axId val="845286160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="845243552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845286160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="845286160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845243552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60513</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340FDEE3-8DC7-1F3A-8F50-3C722C7614FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,15 +1403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53AEAF7-398B-2C46-98FC-E9CC5A5739DD}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="144" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,353 +1431,423 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f>R21</f>
+        <v>3</v>
       </c>
       <c r="C2">
-        <f>(B2)*TAN(B2)/(2*B2*B2-B2-2)</f>
-        <v>-1.5574077246549021</v>
+        <f>(B2-1)*TAN(B2)/(2*B2*B2-B2-2)</f>
+        <v>-2.1930237396042739E-2</v>
       </c>
       <c r="D2">
-        <f>(((B2+0.000001)*TAN(B2+0.000001)/(2*(B2+0.000001)*(B2+0.000001)-(B2+0.000001)-2))-C2)/0.000001</f>
-        <v>-9.6551905599540078</v>
+        <f>(((B2+0.000001-1)*TAN(B2+0.000001)/(2*(B2+0.000001)*(B2+0.000001)-(B2+0.000001)-2))-C2)/0.000001</f>
+        <v>0.16456338965825656</v>
       </c>
       <c r="E2">
         <f>-C2/D2</f>
-        <v>-0.16130263975466486</v>
+        <v>0.13326316042459108</v>
       </c>
       <c r="F2">
         <f>B2+E2</f>
-        <v>0.83869736024533514</v>
+        <v>3.1332631604245913</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f>F2</f>
-        <v>0.83869736024533514</v>
+        <v>3.1332631604245913</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">(B3)*TAN(B3)/(2*B3*B3-B3-2)</f>
-        <v>-0.65175512283796255</v>
+        <f t="shared" ref="C3:C14" si="0">(B3-1)*TAN(B3)/(2*B3*B3-B3-2)</f>
+        <v>-1.2253572795420738E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="1">(((B3+0.000001)*TAN(B3+0.000001)/(2*(B3+0.000001)*(B3+0.000001)-(B3+0.000001)-2))-C3)/0.000001</f>
-        <v>-3.1599114322933275</v>
+        <f t="shared" ref="D3:D14" si="1">(((B3+0.000001-1)*TAN(B3+0.000001)/(2*(B3+0.000001)*(B3+0.000001)-(B3+0.000001)-2))-C3)/0.000001</f>
+        <v>0.14751754853509907</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E5" si="2">-C3/D3</f>
-        <v>-0.20625740208324345</v>
+        <v>8.3065187275025969E-3</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F5" si="3">B3+E3</f>
-        <v>0.63243995816209164</v>
+        <v>3.1415696791520937</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>-4</v>
+      </c>
+      <c r="P3">
+        <f>(O3-1)*TAN(O3)/(2*O3*O3-O3-2)</f>
+        <v>0.17026783563964376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B5" si="4">F3</f>
-        <v>0.63243995816209164</v>
+        <v>3.1415696791520937</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-0.25292998260877692</v>
+        <v>-3.3705677927811461E-6</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>-1.1415663972447199</v>
+        <v>0.14671052846535809</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>-0.22156396966418049</v>
+        <v>2.2974273407903502E-5</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
-        <v>0.41087598849791118</v>
+        <v>3.1415926534255014</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P11" si="5">(O4-1)*TAN(O4)/(2*O4*O4-O4-2)</f>
+        <v>-3.0009798541953223E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="4"/>
-        <v>0.41087598849791118</v>
+        <v>3.1415926534255014</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-8.6342048974570901E-2</v>
+        <v>-2.4102986266695706E-11</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>-0.47273938473535448</v>
+        <v>0.14670833480181555</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>-0.18264196249040321</v>
+        <v>1.6429186725659314E-10</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>0.22823402600750797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="O5">
+        <v>-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>-0.81938994872306958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B14" si="5">F5</f>
-        <v>0.22823402600750797</v>
+        <f t="shared" ref="B6:B14" si="6">F5</f>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-2.4959131571139506E-2</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>-0.22158480129236269</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E14" si="6">-C6/D6</f>
-        <v>-0.11263918565519307</v>
+        <f t="shared" ref="E6:E14" si="7">-C6/D6</f>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F14" si="7">B6+E6</f>
-        <v>0.1155948403523149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F6:F14" si="8">B6+E6</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>3.1148154493098041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="5"/>
-        <v>0.1155948403523149</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-6.4254834119615743E-3</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>-0.11001748695046998</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E7">
-        <f t="shared" si="6"/>
-        <v>-5.8404200914481313E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F7">
-        <f t="shared" si="7"/>
-        <v>5.719063943783359E-2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="5"/>
-        <v>5.719063943783359E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-1.596733388708763E-3</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>-5.5299897736959397E-2</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
-        <v>-2.8874074890767737E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F8">
-        <f t="shared" si="7"/>
-        <v>2.8316564547065853E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="5"/>
-        <v>2.8316564547065853E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-3.9573547998626919E-4</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>-2.7785623962198105E-2</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
-        <v>-1.4242454318271237E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F9">
-        <f t="shared" si="7"/>
-        <v>1.4074110228794616E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-0.54625996581537972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="5"/>
-        <v>1.4074110228794616E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-9.8374051569918641E-5</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>-1.393474536963684E-2</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
-        <v>-7.0596231908385716E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F10">
-        <f t="shared" si="7"/>
-        <v>7.0144870379560444E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>-2.1930237396042739E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="5"/>
-        <v>7.0144870379560444E-3</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-2.4517136449878817E-5</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>-6.9791649631674229E-3</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
-        <v>-3.5129039905587738E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F11">
-        <f t="shared" si="7"/>
-        <v>3.5015830473972705E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0.13359476334802817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="5"/>
-        <v>3.5015830473972705E-3</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-6.1199272948372003E-6</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>-3.4930201394628465E-3</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
-        <v>-1.7520446634980802E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F12">
-        <f t="shared" si="7"/>
-        <v>1.7495383838991903E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="5"/>
-        <v>1.7495383838991903E-3</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-1.5291109011970871E-6</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-1.7477583503768123E-3</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
-        <v>-8.7489835243379876E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F13">
-        <f t="shared" si="7"/>
-        <v>8.7464003146539159E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="5"/>
-        <v>8.7464003146539159E-4</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897931</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-3.8233078143504701E-7</v>
+        <v>-1.79665951042955E-17</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-8.7456774939501331E-4</v>
+        <v>0.14670833478612919</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
-        <v>-4.3716542451917106E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.2246471974811199E-16</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
-        <v>4.3747460694622053E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -831,626 +1885,1172 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
+        <f>R18</f>
         <v>-3</v>
       </c>
       <c r="C17">
-        <f>(B17)*TAN(B17)/(2*B17*B17-B17-2)</f>
-        <v>-2.2507348906464913E-2</v>
+        <f>(B17-1)*TAN(B17)/(2*B17*B17-B17-2)</f>
+        <v>-3.0009798541953223E-2</v>
       </c>
       <c r="D17">
-        <f>(((B17+0.000001)*TAN(B17+0.000001)/(2*(B17+0.000001)*(B17+0.000001)-(B17+0.000001)-2))-C17)/0.000001</f>
-        <v>-0.1690004795794342</v>
+        <f>(((B17+0.000001-1)*TAN(B17+0.000001)/(2*(B17+0.000001)*(B17+0.000001)-(B17+0.000001)-2))-C17)/0.000001</f>
+        <v>-0.2278348089253257</v>
       </c>
       <c r="E17">
         <f>-C17/D17</f>
-        <v>-0.13317920139916484</v>
+        <v>-0.13171735558541944</v>
       </c>
       <c r="F17">
         <f>B17+E17</f>
-        <v>-3.1331792013991651</v>
+        <v>-3.1317173555854194</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <f>R19</f>
+        <v>0.9</v>
       </c>
       <c r="J17">
-        <f>(I17)*TAN(I17)/(2*I17*I17-I17-2)</f>
-        <v>-1.0925199316307594</v>
+        <f>(I17-1)*TAN(I17)/(2*I17*I17-I17-2)</f>
+        <v>9.8449860746120221E-2</v>
       </c>
       <c r="K17">
-        <f>(((I17+0.000001)*TAN(I17+0.000001)/(2*(I17+0.000001)*(I17+0.000001)-(I17+0.000001)-2))-J17)/0.000001</f>
-        <v>4.2528377559580832</v>
+        <f>(((I17+0.000001-1)*TAN(I17+0.000001)/(2*(I17+0.000001)*(I17+0.000001)-(I17+0.000001)-2))-J17)/0.000001</f>
+        <v>-0.58233772291804708</v>
       </c>
       <c r="L17">
         <f>-J17/K17</f>
-        <v>0.2568919846754501</v>
+        <v>0.1690597343630702</v>
       </c>
       <c r="M17">
         <f>I17+L17</f>
-        <v>2.25689198467545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.0690597343630701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
         <f>F17</f>
-        <v>-3.1331792013991651</v>
+        <v>-3.1317173555854194</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C29" si="8">(B18)*TAN(B18)/(2*B18*B18-B18-2)</f>
-        <v>-1.2694046072305515E-3</v>
+        <f t="shared" ref="C18:C29" si="9">(B18-1)*TAN(B18)/(2*B18*B18-B18-2)</f>
+        <v>-1.9667045013067007E-3</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D29" si="9">(((B18+0.000001)*TAN(B18+0.000001)/(2*(B18+0.000001)*(B18+0.000001)-(B18+0.000001)-2))-C18)/0.000001</f>
-        <v>-0.15130720453838434</v>
+        <f t="shared" ref="D18:D29" si="10">(((B18+0.000001-1)*TAN(B18+0.000001)/(2*(B18+0.000001)*(B18+0.000001)-(B18+0.000001)-2))-C18)/0.000001</f>
+        <v>-0.19997324349815132</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E29" si="10">-C18/D18</f>
-        <v>-8.3895846936258931E-3</v>
+        <f t="shared" ref="E18:E29" si="11">-C18/D18</f>
+        <v>-9.8348382358707017E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F29" si="11">B18+E18</f>
-        <v>-3.1415687860927908</v>
+        <f t="shared" ref="F18:F29" si="12">B18+E18</f>
+        <v>-3.14155219382129</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
         <f>M17</f>
-        <v>2.25689198467545</v>
+        <v>1.0690597343630701</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J29" si="12">(I18)*TAN(I18)/(2*I18*I18-I18-2)</f>
-        <v>-0.46479871215189328</v>
+        <f t="shared" ref="J18:J29" si="13">(I18-1)*TAN(I18)/(2*I18*I18-I18-2)</f>
+        <v>-0.16072478148287345</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K29" si="13">(((I18+0.000001)*TAN(I18+0.000001)/(2*(I18+0.000001)*(I18+0.000001)-(I18+0.000001)-2))-J18)/0.000001</f>
-        <v>1.37147180612196</v>
+        <f t="shared" ref="K18:K29" si="14">(((I18+0.000001-1)*TAN(I18+0.000001)/(2*(I18+0.000001)*(I18+0.000001)-(I18+0.000001)-2))-J18)/0.000001</f>
+        <v>-3.3807763509252631</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L29" si="14">-J18/K18</f>
-        <v>0.33890504352851453</v>
+        <f t="shared" ref="L18:L29" si="15">-J18/K18</f>
+        <v>-4.7540790871565847E-2</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M29" si="15">I18+L18</f>
-        <v>2.5957970282039646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M18:M29" si="16">I18+L18</f>
+        <v>1.0215189434915042</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B29" si="16">F18</f>
-        <v>-3.1415687860927908</v>
+        <f t="shared" ref="B19:B29" si="17">F18</f>
+        <v>-3.14155219382129</v>
       </c>
       <c r="C19">
-        <f t="shared" si="8"/>
-        <v>-3.5909802838100394E-6</v>
+        <f t="shared" si="9"/>
+        <v>-8.0251061408908985E-6</v>
       </c>
       <c r="D19">
-        <f t="shared" si="9"/>
-        <v>-0.1504560733314049</v>
+        <f t="shared" si="10"/>
+        <v>-0.19835115928061614</v>
       </c>
       <c r="E19">
-        <f t="shared" si="10"/>
-        <v>-2.3867300297677577E-5</v>
+        <f t="shared" si="11"/>
+        <v>-4.0459083627222097E-5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="11"/>
-        <v>-3.1415926533930882</v>
+        <f t="shared" si="12"/>
+        <v>-3.1415926529049174</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I29" si="17">M18</f>
-        <v>2.5957970282039646</v>
+        <f t="shared" ref="I19:I29" si="18">M18</f>
+        <v>1.0215189434915042</v>
       </c>
       <c r="J19">
-        <f t="shared" si="12"/>
-        <v>-0.17752538763581116</v>
+        <f t="shared" si="13"/>
+        <v>-3.761865361996513E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="13"/>
-        <v>0.51930318811788112</v>
+        <f t="shared" si="14"/>
+        <v>-1.9568880302578417</v>
       </c>
       <c r="L19">
-        <f t="shared" si="14"/>
-        <v>0.34185306714410763</v>
+        <f t="shared" si="15"/>
+        <v>-1.9223712873857404E-2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="15"/>
-        <v>2.9376500953480722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1.0022952306176467</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20">
-        <f t="shared" si="16"/>
-        <v>-3.1415926533930882</v>
+        <f t="shared" si="17"/>
+        <v>-3.1415926529049174</v>
       </c>
       <c r="C20">
-        <f t="shared" si="8"/>
-        <v>-2.9594983462997331E-11</v>
+        <f t="shared" si="9"/>
+        <v>-1.3584137228604602E-10</v>
       </c>
       <c r="D20">
-        <f t="shared" si="9"/>
-        <v>-0.15045369317861676</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460645944069</v>
       </c>
       <c r="E20">
-        <f t="shared" si="10"/>
-        <v>-1.9670493184811711E-10</v>
+        <f t="shared" si="11"/>
+        <v>-6.848755542733858E-10</v>
       </c>
       <c r="F20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H20">
         <v>4</v>
       </c>
       <c r="I20">
-        <f t="shared" si="17"/>
-        <v>2.9376500953480722</v>
+        <f t="shared" si="18"/>
+        <v>1.0022952306176467</v>
       </c>
       <c r="J20">
-        <f t="shared" si="12"/>
-        <v>-4.9307115568482621E-2</v>
+        <f t="shared" si="13"/>
+        <v>-3.6176688530344596E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="13"/>
-        <v>0.27484054233167798</v>
+        <f t="shared" si="14"/>
+        <v>-1.5951119554649327</v>
       </c>
       <c r="L20">
-        <f t="shared" si="14"/>
-        <v>0.17940262797538334</v>
+        <f t="shared" si="15"/>
+        <v>-2.2679717499703685E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="15"/>
-        <v>3.1170527233234555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1.0000272588676764</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C21">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D21">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E21">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
-        <f t="shared" si="17"/>
-        <v>3.1170527233234555</v>
+        <f t="shared" si="18"/>
+        <v>1.0000272588676764</v>
       </c>
       <c r="J21">
-        <f t="shared" si="12"/>
-        <v>-5.34458314499053E-3</v>
+        <f t="shared" si="13"/>
+        <v>-4.2459188741564303E-5</v>
       </c>
       <c r="K21">
-        <f t="shared" si="13"/>
-        <v>0.22044574053171895</v>
+        <f t="shared" si="14"/>
+        <v>-1.5578573685333186</v>
       </c>
       <c r="L21">
-        <f t="shared" si="14"/>
-        <v>2.4244438255415154E-2</v>
+        <f t="shared" si="15"/>
+        <v>-2.7254862735950277E-5</v>
       </c>
       <c r="M21">
-        <f t="shared" si="15"/>
-        <v>3.1412971615788705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1.0000000040049404</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C22">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D22">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E22">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H22">
         <v>6</v>
       </c>
       <c r="I22">
-        <f t="shared" si="17"/>
-        <v>3.1412971615788705</v>
+        <f t="shared" si="18"/>
+        <v>1.0000000040049404</v>
       </c>
       <c r="J22">
-        <f t="shared" si="12"/>
-        <v>-6.3602549932374343E-5</v>
+        <f t="shared" si="13"/>
+        <v>-6.237325213437885E-9</v>
       </c>
       <c r="K22">
-        <f t="shared" si="13"/>
-        <v>0.21527293998815336</v>
+        <f t="shared" si="14"/>
+        <v>-1.5574158871638586</v>
       </c>
       <c r="L22">
-        <f t="shared" si="14"/>
-        <v>2.9545074237326085E-4</v>
+        <f t="shared" si="15"/>
+        <v>-4.0049194725991932E-9</v>
       </c>
       <c r="M22">
-        <f t="shared" si="15"/>
-        <v>3.1415926123212436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1.0000000000000209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
       <c r="B23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C23">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D23">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E23">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H23">
         <v>7</v>
       </c>
       <c r="I23">
-        <f t="shared" si="17"/>
-        <v>3.1415926123212436</v>
+        <f t="shared" si="18"/>
+        <v>1.0000000000000209</v>
       </c>
       <c r="J23">
-        <f t="shared" si="12"/>
-        <v>-8.8815169155006976E-9</v>
+        <f t="shared" si="13"/>
+        <v>-3.2506514395253356E-14</v>
       </c>
       <c r="K23">
-        <f t="shared" si="13"/>
-        <v>0.21521262483812129</v>
+        <f t="shared" si="14"/>
+        <v>-1.5574158223018542</v>
       </c>
       <c r="L23">
-        <f t="shared" si="14"/>
-        <v>4.1268568338782168E-8</v>
+        <f t="shared" si="15"/>
+        <v>-2.0872084339819317E-14</v>
       </c>
       <c r="M23">
-        <f t="shared" si="15"/>
-        <v>3.1415926535898118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="B24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C24">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D24">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E24">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H24">
         <v>8</v>
       </c>
       <c r="I24">
-        <f t="shared" si="17"/>
-        <v>3.1415926535898118</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J24">
-        <f t="shared" si="12"/>
-        <v>3.9877371781300842E-15</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="13"/>
-        <v>0.2152126164178032</v>
+        <f t="shared" si="14"/>
+        <v>-1.5574158223015164</v>
       </c>
       <c r="L24">
-        <f t="shared" si="14"/>
-        <v>-1.8529290914750496E-14</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="15"/>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
       <c r="B25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D25">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E25">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H25">
         <v>9</v>
       </c>
       <c r="I25">
-        <f t="shared" si="17"/>
-        <v>3.1415926535897931</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="12"/>
-        <v>-2.6355956673209842E-17</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="13"/>
-        <v>0.21521261641780706</v>
+        <f t="shared" si="14"/>
+        <v>-1.5574158223015164</v>
       </c>
       <c r="L25">
-        <f t="shared" si="14"/>
-        <v>1.224647379503217E-16</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="15"/>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10</v>
       </c>
       <c r="B26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C26">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D26">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E26">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <f t="shared" si="17"/>
-        <v>3.1415926535897931</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="12"/>
-        <v>-2.6355956673209842E-17</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="13"/>
-        <v>0.21521261641780706</v>
+        <f t="shared" si="14"/>
+        <v>-1.5574158223015164</v>
       </c>
       <c r="L26">
-        <f t="shared" si="14"/>
-        <v>1.224647379503217E-16</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="15"/>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>11</v>
       </c>
       <c r="B27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C27">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D27">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E27">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H27">
         <v>11</v>
       </c>
       <c r="I27">
-        <f t="shared" si="17"/>
-        <v>3.1415926535897931</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="12"/>
-        <v>-2.6355956673209842E-17</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="13"/>
-        <v>0.21521261641780706</v>
+        <f t="shared" si="14"/>
+        <v>-1.5574158223015164</v>
       </c>
       <c r="L27">
-        <f t="shared" si="14"/>
-        <v>1.224647379503217E-16</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="15"/>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
       <c r="B28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C28">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D28">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E28">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H28">
         <v>12</v>
       </c>
       <c r="I28">
-        <f t="shared" si="17"/>
-        <v>3.1415926535897931</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="12"/>
-        <v>-2.6355956673209842E-17</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="13"/>
-        <v>0.21521261641780706</v>
+        <f t="shared" si="14"/>
+        <v>-1.5574158223015164</v>
       </c>
       <c r="L28">
-        <f t="shared" si="14"/>
-        <v>1.224647379503217E-16</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="15"/>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>13</v>
       </c>
       <c r="B29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="C29">
-        <f t="shared" si="8"/>
-        <v>-1.8425257266074511E-17</v>
+        <f t="shared" si="9"/>
+        <v>-2.4290198809345754E-17</v>
       </c>
       <c r="D29">
-        <f t="shared" si="9"/>
-        <v>-0.15045369315900148</v>
+        <f t="shared" si="10"/>
+        <v>-0.19834460634852535</v>
       </c>
       <c r="E29">
-        <f t="shared" si="10"/>
-        <v>-1.2246463931332316E-16</v>
+        <f t="shared" si="11"/>
+        <v>-1.224646299010709E-16</v>
       </c>
       <c r="F29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.1415926535897931</v>
       </c>
       <c r="H29">
         <v>13</v>
       </c>
       <c r="I29">
-        <f t="shared" si="17"/>
-        <v>3.1415926535897931</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" si="12"/>
-        <v>-2.6355956673209842E-17</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="13"/>
-        <v>0.21521261641780706</v>
+        <f t="shared" si="14"/>
+        <v>-1.5574158223015164</v>
       </c>
       <c r="L29">
-        <f t="shared" si="14"/>
-        <v>1.224647379503217E-16</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="15"/>
-        <v>3.1415926535897931</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f>R20</f>
+        <v>-0.2</v>
+      </c>
+      <c r="C32">
+        <f>(B32-1)*TAN(B32)/(2*B32*B32-B32-2)</f>
+        <v>-0.14142560616884126</v>
+      </c>
+      <c r="D32">
+        <f>(((B32+0.000001)*TAN(B32+0.000001)/(2*(B32+0.000001)*(B32+0.000001)-(B32+0.000001)-2))-C32)/0.000001</f>
+        <v>117854.93538549804</v>
+      </c>
+      <c r="E32">
+        <f>-C32/D32</f>
+        <v>1.1999973162451334E-6</v>
+      </c>
+      <c r="F32">
+        <f>B32+E32</f>
+        <v>-0.19999880000268377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <f>F32</f>
+        <v>-0.19999880000268377</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C51" si="19">(B33)*TAN(B33)/(2*B33*B33-B33-2)</f>
+        <v>-2.357061806864846E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D51" si="20">(((B33+0.000001)*TAN(B33+0.000001)/(2*(B33+0.000001)*(B33+0.000001)-(B33+0.000001)-2))-C33)/0.000001</f>
+        <v>0.26357589098108258</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E51" si="21">-C33/D33</f>
+        <v>8.9426305193976083E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F51" si="22">B33+E33</f>
+        <v>-0.11057249480870769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B51" si="23">F33</f>
+        <v>-0.11057249480870769</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="19"/>
+        <v>-6.5825810517617517E-3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="20"/>
+        <v>0.12464167033644086</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="21"/>
+        <v>5.2812041382257022E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="22"/>
+        <v>-5.776045342645067E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="23"/>
+        <v>-5.776045342645067E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="19"/>
+        <v>-1.7255848850011898E-3</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="20"/>
+        <v>6.0913181002030317E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="21"/>
+        <v>2.8328595824665171E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="22"/>
+        <v>-2.9431857601785499E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="23"/>
+        <v>-2.9431857601785499E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="19"/>
+        <v>-4.4009993350634352E-4</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="20"/>
+        <v>3.0164326196243686E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="21"/>
+        <v>1.4590080038358306E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="22"/>
+        <v>-1.4841777563427192E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="23"/>
+        <v>-1.4841777563427192E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="19"/>
+        <v>-1.1099540285178233E-4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="20"/>
+        <v>1.5016988875833833E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="21"/>
+        <v>7.3913221731423309E-3</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="22"/>
+        <v>-7.4504553902848616E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="23"/>
+        <v>-7.4504553902848616E-3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="19"/>
+        <v>-2.7860489502473245E-5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="20"/>
+        <v>7.4929012512493596E-3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="21"/>
+        <v>3.7182512578592722E-3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="22"/>
+        <v>-3.7322041324255894E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="23"/>
+        <v>-3.7322041324255894E-3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="19"/>
+        <v>-6.9778247106720711E-6</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="20"/>
+        <v>3.7423135355307896E-3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="21"/>
+        <v>1.8645751202891593E-3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="22"/>
+        <v>-1.8676290121364301E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="23"/>
+        <v>-1.8676290121364301E-3</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="19"/>
+        <v>-1.7456573002534943E-6</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="20"/>
+        <v>1.8697642919141761E-3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="21"/>
+        <v>9.3362425831032048E-4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="22"/>
+        <v>-9.340047538261096E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="23"/>
+        <v>-9.340047538261096E-4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="19"/>
+        <v>-4.3638674125556439E-7</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="20"/>
+        <v>9.3416090572682315E-4</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="21"/>
+        <v>4.6714301420699468E-4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="22"/>
+        <v>-4.6686173961911492E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="23"/>
+        <v>-4.6686173961911492E-4</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="19"/>
+        <v>-1.0900541886639404E-7</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="20"/>
+        <v>4.6652518098573922E-4</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="21"/>
+        <v>2.3365388045308133E-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="22"/>
+        <v>-2.332078591660336E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="23"/>
+        <v>-2.332078591660336E-4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="19"/>
+        <v>-2.7196125935612874E-8</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="20"/>
+        <v>2.3274851385472972E-4</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="21"/>
+        <v>1.1684768888615706E-4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="22"/>
+        <v>-1.1636017027987653E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="23"/>
+        <v>-1.1636017027987653E-4</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="19"/>
+        <v>-6.7702386290615784E-9</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="20"/>
+        <v>1.158702429523269E-4</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="21"/>
+        <v>5.8429485056375456E-5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="22"/>
+        <v>-5.7930685223501078E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="23"/>
+        <v>-5.7930685223501078E-5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="19"/>
+        <v>-1.6780307574764807E-9</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="20"/>
+        <v>5.7433159598624149E-5</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="21"/>
+        <v>2.9217106793419026E-5</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="22"/>
+        <v>-2.8713578430082052E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="23"/>
+        <v>-2.8713578430082052E-5</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="19"/>
+        <v>-4.1224071203641685E-10</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="20"/>
+        <v>2.8214175568229898E-5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="21"/>
+        <v>1.4611120251928028E-5</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="22"/>
+        <v>-1.4102458178154023E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="23"/>
+        <v>-1.4102458178154023E-5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="19"/>
+        <v>-9.9440364536451492E-11</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="20"/>
+        <v>1.3602597018786219E-5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="21"/>
+        <v>7.3103955369049601E-6</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="22"/>
+        <v>-6.7920626412490633E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="23"/>
+        <v>-6.7920626412490633E-6</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="19"/>
+        <v>-2.3066135796063993E-11</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="20"/>
+        <v>6.2920923970820831E-6</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="21"/>
+        <v>3.6658927333554037E-6</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="22"/>
+        <v>-3.1261699078936596E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="23"/>
+        <v>-3.1261699078936596E-6</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="19"/>
+        <v>-4.886476784551939E-12</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="20"/>
+        <v>2.626175143029382E-6</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="21"/>
+        <v>1.8606819874607535E-6</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="22"/>
+        <v>-1.2654879204329061E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="23"/>
+        <v>-1.2654879204329061E-6</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="19"/>
+        <v>-8.0073034503980001E-13</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="20"/>
+        <v>7.6548842241374981E-7</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="21"/>
+        <v>1.0460384789555991E-6</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="22"/>
+        <v>-2.1944944147730694E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="23"/>
+        <v>-2.1944944147730694E-7</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="19"/>
+        <v>-2.4079031324417518E-14</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="20"/>
+        <v>-2.8055043699152322E-7</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="21"/>
+        <v>-8.5827816141113558E-8</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="22"/>
+        <v>-3.052772576184205E-7</v>
       </c>
     </row>
   </sheetData>
@@ -1460,5 +3060,6 @@
     <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>